--- a/Parte A/Data/resultados_validacion_final.xlsx
+++ b/Parte A/Data/resultados_validacion_final.xlsx
@@ -472,19 +472,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6892430278884463</v>
+        <v>0.6653386454183267</v>
       </c>
       <c r="C2" t="n">
-        <v>0.706766917293233</v>
+        <v>0.6911764705882353</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6861313868613139</v>
+        <v>0.6573426573426573</v>
       </c>
       <c r="E2" t="n">
         <v>0.7286821705426356</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7497140678612275</v>
+        <v>0.7331300038124287</v>
       </c>
     </row>
     <row r="3">
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7051792828685259</v>
+        <v>0.701195219123506</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7175572519083969</v>
+        <v>0.7126436781609196</v>
       </c>
       <c r="D3" t="n">
-        <v>0.706766917293233</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7286821705426356</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7691574532977506</v>
+        <v>0.7680772652179437</v>
       </c>
     </row>
   </sheetData>

--- a/Parte A/Data/resultados_validacion_final.xlsx
+++ b/Parte A/Data/resultados_validacion_final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,45 +468,155 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Random Forest</t>
+          <t>Logistic Regression</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6653386454183267</v>
+        <v>0.6892430278884463</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6911764705882353</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6573426573426573</v>
+        <v>0.7073170731707317</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7286821705426356</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7331300038124287</v>
+        <v>0.7673783199898335</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6852589641434262</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6996197718631179</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6865671641791045</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7131782945736435</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.7429787774812556</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>K-Nearest Neighbors</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6613545816733067</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6118721461187214</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7444444444444445</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5193798449612403</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.7502859321387725</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>SVM</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B5" t="n">
         <v>0.701195219123506</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C5" t="n">
         <v>0.7126436781609196</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D5" t="n">
         <v>0.7045454545454546</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E5" t="n">
         <v>0.7209302325581395</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.7680772652179437</v>
+      <c r="F5" t="n">
+        <v>0.7678866437920956</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Decision Tree</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6254980079681275</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5252525252525253</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7536231884057971</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4031007751937984</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6524971406786122</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6573705179282868</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6194690265486725</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7216494845360825</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5426356589147286</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.7624857033930614</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.6812749003984063</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7101449275362319</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7596899224806202</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.7293811157707459</v>
       </c>
     </row>
   </sheetData>

--- a/Parte A/Data/resultados_validacion_final.xlsx
+++ b/Parte A/Data/resultados_validacion_final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,155 +468,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Logistic Regression</t>
+          <t>Decision Tree</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6892430278884463</v>
+        <v>0.6294820717131474</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6904761904761905</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7073170731707317</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6744186046511628</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7673783199898335</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.6852589641434262</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.6996197718631179</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.6865671641791045</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.7131782945736435</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.7429787774812556</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>K-Nearest Neighbors</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.6613545816733067</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.6118721461187214</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7444444444444445</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.5193798449612403</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.7502859321387725</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>SVM</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.701195219123506</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7126436781609196</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.7045454545454546</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.7209302325581395</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.7678866437920956</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Decision Tree</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.6254980079681275</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.5252525252525253</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.7536231884057971</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.4031007751937984</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.6524971406786122</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Naive Bayes</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.6573705179282868</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.6194690265486725</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.7216494845360825</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.5426356589147286</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.7624857033930614</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>XGBoost</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.6812749003984063</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7101449275362319</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.7596899224806202</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.7293811157707459</v>
+        <v>0.6651416952598805</v>
       </c>
     </row>
   </sheetData>
